--- a/Chart-customization-checklist.xlsx
+++ b/Chart-customization-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bee369f06cde55e4/_A lot of training/4G ^0 5G/towards5gs-helm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5470EC1-0D83-4FA3-B351-3F533031221F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="8_{B5470EC1-0D83-4FA3-B351-3F533031221F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6FDC04E-6AB4-43B4-B552-DAACF0C9A5E1}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{A89B8CCF-D1AF-4C49-B6D5-8DC965BE883F}"/>
+    <workbookView xWindow="5025" yWindow="17880" windowWidth="19440" windowHeight="11520" xr2:uid="{A89B8CCF-D1AF-4C49-B6D5-8DC965BE883F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t>global.n2network.masterIf</t>
   </si>
@@ -78,24 +78,37 @@
   </si>
   <si>
     <t>SMF Subchart</t>
+  </si>
+  <si>
+    <t>eth0 =</t>
+  </si>
+  <si>
+    <t>enp0s8</t>
+  </si>
+  <si>
+    <t>eth1 =</t>
+  </si>
+  <si>
+    <t>enp0s3</t>
+  </si>
+  <si>
+    <t>IP address</t>
+  </si>
+  <si>
+    <t>10.0.2.15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -112,7 +125,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -135,6 +148,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -142,11 +168,9 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBCE82C4-FCEA-4E8B-BB9F-4CA62BC75CD2}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -472,6 +496,7 @@
     <col min="1" max="1" width="33.6640625" customWidth="1"/>
     <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -496,94 +521,147 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="4"/>
+      <c r="F5" s="2"/>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="F6" s="2"/>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4"/>
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="4"/>
+      <c r="F7" s="2"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="4"/>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="4"/>
+      <c r="F8" s="2"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="4"/>
+      <c r="F9" s="2"/>
       <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="D11" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Chart-customization-checklist.xlsx
+++ b/Chart-customization-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bee369f06cde55e4/_A lot of training/4G ^0 5G/towards5gs-helm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="8_{B5470EC1-0D83-4FA3-B351-3F533031221F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6FDC04E-6AB4-43B4-B552-DAACF0C9A5E1}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="8_{B5470EC1-0D83-4FA3-B351-3F533031221F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F58A649A-8E21-4455-9321-AEAE1DE4BA24}"/>
   <bookViews>
     <workbookView xWindow="5025" yWindow="17880" windowWidth="19440" windowHeight="11520" xr2:uid="{A89B8CCF-D1AF-4C49-B6D5-8DC965BE883F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
   <si>
     <t>global.n2network.masterIf</t>
   </si>
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t>AMF subchart</t>
-  </si>
-  <si>
-    <t>gNB subchart</t>
   </si>
   <si>
     <t xml:space="preserve"> 5GC Chart</t>
@@ -165,11 +162,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -186,6 +182,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -485,179 +485,177 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBCE82C4-FCEA-4E8B-BB9F-4CA62BC75CD2}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="33.6640625" customWidth="1"/>
     <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>17</v>
+      <c r="B5" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>15</v>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
+      <c r="E9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D11" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Chart-customization-checklist.xlsx
+++ b/Chart-customization-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bee369f06cde55e4/_A lot of training/4G ^0 5G/towards5gs-helm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="8_{B5470EC1-0D83-4FA3-B351-3F533031221F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F58A649A-8E21-4455-9321-AEAE1DE4BA24}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="8_{B5470EC1-0D83-4FA3-B351-3F533031221F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{147A97CE-3F84-4CC6-B477-64F937AB7BF7}"/>
   <bookViews>
-    <workbookView xWindow="5025" yWindow="17880" windowWidth="19440" windowHeight="11520" xr2:uid="{A89B8CCF-D1AF-4C49-B6D5-8DC965BE883F}"/>
+    <workbookView minimized="1" xWindow="768" yWindow="768" windowWidth="17280" windowHeight="9960" xr2:uid="{A89B8CCF-D1AF-4C49-B6D5-8DC965BE883F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
   <si>
     <t>global.n2network.masterIf</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>10.0.2.15</t>
+  </si>
+  <si>
+    <t>10.0.2.2</t>
   </si>
 </sst>
 </file>
@@ -488,7 +491,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -612,12 +615,12 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F8" s="1"/>
     </row>

--- a/Chart-customization-checklist.xlsx
+++ b/Chart-customization-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bee369f06cde55e4/_A lot of training/4G ^0 5G/towards5gs-helm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="8_{B5470EC1-0D83-4FA3-B351-3F533031221F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{147A97CE-3F84-4CC6-B477-64F937AB7BF7}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="8_{B5470EC1-0D83-4FA3-B351-3F533031221F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{322473D5-D5E4-4D41-8E63-905DC2A446E5}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="768" yWindow="768" windowWidth="17280" windowHeight="9960" xr2:uid="{A89B8CCF-D1AF-4C49-B6D5-8DC965BE883F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{A89B8CCF-D1AF-4C49-B6D5-8DC965BE883F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
   <si>
     <t>global.n2network.masterIf</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>10.0.2.2</t>
+  </si>
+  <si>
+    <t>10.0.2.20</t>
   </si>
 </sst>
 </file>
@@ -491,7 +494,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -601,12 +604,12 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F7" s="1"/>
     </row>
@@ -632,7 +635,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F9" s="1"/>
     </row>

--- a/Chart-customization-checklist.xlsx
+++ b/Chart-customization-checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bee369f06cde55e4/_A lot of training/4G ^0 5G/towards5gs-helm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="8_{B5470EC1-0D83-4FA3-B351-3F533031221F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{322473D5-D5E4-4D41-8E63-905DC2A446E5}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="8_{B5470EC1-0D83-4FA3-B351-3F533031221F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92EF2D62-B820-4A20-89C6-F7B53059CBC5}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{A89B8CCF-D1AF-4C49-B6D5-8DC965BE883F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
   <si>
     <t>global.n2network.masterIf</t>
   </si>
@@ -92,21 +92,29 @@
     <t>IP address</t>
   </si>
   <si>
-    <t>10.0.2.15</t>
-  </si>
-  <si>
     <t>10.0.2.2</t>
   </si>
   <si>
     <t>10.0.2.20</t>
+  </si>
+  <si>
+    <t>Interface</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -168,11 +176,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -494,32 +503,33 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection sqref="A1:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="33.6640625" customWidth="1"/>
     <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.109375" customWidth="1"/>
     <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -604,12 +614,12 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F7" s="1"/>
     </row>
@@ -618,12 +628,12 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F8" s="1"/>
     </row>
@@ -635,11 +645,14 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D11" s="1" t="s">
         <v>17</v>
       </c>
@@ -661,7 +674,7 @@
         <v>16</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Chart-customization-checklist.xlsx
+++ b/Chart-customization-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bee369f06cde55e4/_A lot of training/4G ^0 5G/towards5gs-helm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="8_{B5470EC1-0D83-4FA3-B351-3F533031221F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92EF2D62-B820-4A20-89C6-F7B53059CBC5}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="8_{B5470EC1-0D83-4FA3-B351-3F533031221F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3042B21-CDAB-4A50-940F-D60621146ED1}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{A89B8CCF-D1AF-4C49-B6D5-8DC965BE883F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
   <si>
     <t>global.n2network.masterIf</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>Interface</t>
+  </si>
+  <si>
+    <t>10.0.2.0</t>
   </si>
 </sst>
 </file>
@@ -204,9 +207,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -244,7 +247,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -350,7 +353,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -492,7 +495,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -503,7 +506,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection sqref="A1:F13"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -614,12 +617,12 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F7" s="1"/>
     </row>
@@ -645,7 +648,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F9" s="1"/>
     </row>

--- a/Chart-customization-checklist.xlsx
+++ b/Chart-customization-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bee369f06cde55e4/_A lot of training/4G ^0 5G/towards5gs-helm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="8_{B5470EC1-0D83-4FA3-B351-3F533031221F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3042B21-CDAB-4A50-940F-D60621146ED1}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="8_{B5470EC1-0D83-4FA3-B351-3F533031221F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DFD72199-B6C0-403D-9067-F9E066312DF2}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{A89B8CCF-D1AF-4C49-B6D5-8DC965BE883F}"/>
   </bookViews>
@@ -95,13 +95,13 @@
     <t>10.0.2.2</t>
   </si>
   <si>
-    <t>10.0.2.20</t>
-  </si>
-  <si>
     <t>Interface</t>
   </si>
   <si>
     <t>10.0.2.0</t>
+  </si>
+  <si>
+    <t>10.0.2.19</t>
   </si>
 </sst>
 </file>
@@ -506,7 +506,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -617,12 +617,12 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F7" s="1"/>
     </row>
@@ -648,13 +648,13 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F9" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>17</v>
@@ -677,7 +677,7 @@
         <v>16</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Chart-customization-checklist.xlsx
+++ b/Chart-customization-checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bee369f06cde55e4/_A lot of training/4G ^0 5G/towards5gs-helm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="8_{B5470EC1-0D83-4FA3-B351-3F533031221F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DFD72199-B6C0-403D-9067-F9E066312DF2}"/>
+  <xr:revisionPtr revIDLastSave="189" documentId="8_{B5470EC1-0D83-4FA3-B351-3F533031221F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF22743B-7C29-4AC7-9976-F8F2631ED054}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{A89B8CCF-D1AF-4C49-B6D5-8DC965BE883F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="43">
   <si>
     <t>global.n2network.masterIf</t>
   </si>
@@ -102,13 +102,81 @@
   </si>
   <si>
     <t>10.0.2.19</t>
+  </si>
+  <si>
+    <t>n2</t>
+  </si>
+  <si>
+    <t>n3</t>
+  </si>
+  <si>
+    <t>n4</t>
+  </si>
+  <si>
+    <t>n6</t>
+  </si>
+  <si>
+    <t>AMF</t>
+  </si>
+  <si>
+    <t>UPF</t>
+  </si>
+  <si>
+    <t>UERANSIM</t>
+  </si>
+  <si>
+    <t>SMF</t>
+  </si>
+  <si>
+    <t>10.100.50.248/29</t>
+  </si>
+  <si>
+    <t>10.100.50.232/29</t>
+  </si>
+  <si>
+    <t>10.100.50.240/29</t>
+  </si>
+  <si>
+    <t>10.0.2.0/24</t>
+  </si>
+  <si>
+    <t>MACVLAN</t>
+  </si>
+  <si>
+    <t>Reference 
+point</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>masterIf/GW</t>
+  </si>
+  <si>
+    <t>Subnet</t>
+  </si>
+  <si>
+    <t>enp0s8/
+10.100.50.254</t>
+  </si>
+  <si>
+    <t>enp0s8/
+10.100.50.238</t>
+  </si>
+  <si>
+    <t>enp0s8/
+10.100.50.246</t>
+  </si>
+  <si>
+    <t>enp0s3/
+10.0.2.2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +187,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -179,12 +262,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,22 +610,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBCE82C4-FCEA-4E8B-BB9F-4CA62BC75CD2}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="4" t="s">
         <v>9</v>
@@ -536,7 +645,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -552,7 +661,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -568,7 +677,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -584,7 +693,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -598,7 +707,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -612,7 +721,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -626,7 +735,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -640,7 +749,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -648,11 +757,11 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>19</v>
       </c>
@@ -660,7 +769,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
@@ -669,7 +778,7 @@
       </c>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
@@ -680,7 +789,121 @@
         <v>21</v>
       </c>
     </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:7" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C16:F16"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
